--- a/resources/insumos-piezas.xlsx
+++ b/resources/insumos-piezas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>ESPESOR</t>
   </si>
@@ -28,17 +28,7 @@
     <t>N</t>
   </si>
   <si>
-    <t>Chapa</t>
-  </si>
-  <si>
     <t>G</t>
-  </si>
-  <si>
-    <t>Chapa SAE 1010 esp=1,6mm x 2440mm x 1220mm-GALVANIZADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chapa 1010 esp=1,6mm x 2440mm x 1220mm-GALVANIZADO
-</t>
   </si>
 </sst>
 </file>
@@ -46,13 +36,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -88,21 +84,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -413,62 +415,64 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="48.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="1">
         <v>1.6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4">
+        <v>10013</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="4">
+        <v>20013</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3">
-        <v>1.6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1">
         <v>2.14</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="4">
+        <v>10013</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="1">
         <v>0.9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>20013</v>
       </c>
     </row>
   </sheetData>
